--- a/超次元书吏数据库设计书.xlsx
+++ b/超次元书吏数据库设计书.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin_users" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,76 @@
   </si>
   <si>
     <t>user_agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_wechat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_messenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_instagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://linecorp.com</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>https://www.messenger.com/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/</t>
+  </si>
+  <si>
+    <t>http://www.wechat.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qq.com/</t>
+  </si>
+  <si>
+    <t>Test Scenario 01</t>
+  </si>
+  <si>
+    <t>test_item_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Item 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,13 +329,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,7 +344,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -306,8 +376,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -323,7 +393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,16 +685,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -688,15 +758,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -730,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -747,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -779,15 +849,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" customWidth="1"/>
+    <col min="2" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -838,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -873,21 +943,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" customWidth="1"/>
+    <col min="2" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -901,105 +971,224 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2">
-        <v>42582</v>
-      </c>
-      <c r="G2" s="2">
-        <v>42582</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>42582</v>
+      </c>
+      <c r="N3" s="2">
+        <v>42582</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2">
-        <v>42582</v>
-      </c>
-      <c r="G3" s="2">
-        <v>42582</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>42582</v>
+      </c>
+      <c r="N4" s="2">
+        <v>42582</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="8" width="17.08984375" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,91 +1223,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="I2" s="2">
-        <v>42582</v>
-      </c>
-      <c r="J2" s="2">
-        <v>42582</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42582</v>
+      </c>
+      <c r="J3" s="2">
+        <v>42582</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>42582</v>
-      </c>
-      <c r="J3" s="2">
-        <v>42582</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
         <v>42582</v>
@@ -1130,21 +1307,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>0.05</v>
@@ -1159,6 +1336,38 @@
         <v>42582</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>42582</v>
+      </c>
+      <c r="J6" s="2">
+        <v>42582</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
     </row>
@@ -1177,15 +1386,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" customWidth="1"/>
+    <col min="2" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1234,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1257,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1280,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1314,19 +1523,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="2" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1372,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1395,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1418,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>

--- a/超次元书吏数据库设计书.xlsx
+++ b/超次元书吏数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="admin_users" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,28 @@
   </si>
   <si>
     <t>test01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.android.com/</t>
+  </si>
+  <si>
+    <t>item_page_iphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.apple.com/iphone/</t>
+  </si>
+  <si>
+    <t>item_page_alipay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taobao.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,21 +965,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="9.125" customWidth="1"/>
+    <col min="2" max="15" width="17.125" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="17" max="17" width="14.875" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,40 +993,49 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1018,28 +1049,37 @@
         <v>67</v>
       </c>
       <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>72</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1073,17 +1113,26 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2">
-        <v>42582</v>
-      </c>
-      <c r="N3" s="2">
-        <v>42582</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2">
+        <v>42582</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>42582</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1117,17 +1166,26 @@
       <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2">
-        <v>42582</v>
-      </c>
-      <c r="N4" s="2">
-        <v>42582</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2">
+        <v>42582</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>42582</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1159,6 +1217,15 @@
         <v>30</v>
       </c>
       <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1173,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
@@ -1374,7 +1441,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/超次元书吏数据库设计书.xlsx
+++ b/超次元书吏数据库设计书.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin_users" sheetId="1" r:id="rId1"/>
     <sheet name="auths" sheetId="3" r:id="rId2"/>
     <sheet name="media" sheetId="5" r:id="rId3"/>
     <sheet name="items" sheetId="6" r:id="rId4"/>
-    <sheet name="scenarios" sheetId="8" r:id="rId5"/>
-    <sheet name="view_ histories" sheetId="9" r:id="rId6"/>
-    <sheet name="conversion_ histories" sheetId="10" r:id="rId7"/>
+    <sheet name="user_agents" sheetId="11" r:id="rId5"/>
+    <sheet name="scenarios" sheetId="8" r:id="rId6"/>
+    <sheet name="view_ histories" sheetId="9" r:id="rId7"/>
+    <sheet name="conversion_ histories" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,13 +343,110 @@
   <si>
     <t>https://www.taobao.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>user_agent_code</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>req.useragent.source.indexOf('Line') != -1</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>req.useragent.source.indexOf('QQ') != -1</t>
+  </si>
+  <si>
+    <t>WeiXin</t>
+  </si>
+  <si>
+    <t>req.useragent.source.indexOf('MicroMessenger') != -1</t>
+  </si>
+  <si>
+    <t>Facebook Messenger</t>
+  </si>
+  <si>
+    <t>req.useragent.source.indexOf('FB') != -1 &amp;&amp; req.useragent.source.indexOf('Messenger') != -1</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>req.useragent.source.indexOf('FB') != -1 &amp;&amp; req.useragent.source.indexOf('Messenger') === -1</t>
+  </si>
+  <si>
+    <t>req.useragent.source.indexOf('Alipay') != -1</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>req.useragent.isiPhone || req.useragent.isiPod</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>req.useragent.isAndroid</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>variety_item_pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"item_page":"https://github.com/","item_page_iphone":"https://www.apple.com/iphone/","item_page_android":"https://www.android.com/","i
+tem_page_line":"https://linecorp.com","item_page_fb":"https://www.facebook.com/","item_page_messenger":"https://www.messenger.com/","ite
+m_page_twitter":"https://twitter.com/","item_page_instagram":"https://www.instagram.com/","item_page_wechat":"http://www.wechat.com/","i
+tem_page_qq":"http://www.qq.com/","item_page_alipay":"https://www.taobao.com/"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_page_line</t>
+  </si>
+  <si>
+    <t>item_page_qq</t>
+  </si>
+  <si>
+    <t>item_page_wechat</t>
+  </si>
+  <si>
+    <t>item_page_messenger</t>
+  </si>
+  <si>
+    <t>item_page_fb</t>
+  </si>
+  <si>
+    <t>item_page_alipay</t>
+  </si>
+  <si>
+    <t>item_page_iphone</t>
+  </si>
+  <si>
+    <t>item_page_android</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +467,13 @@
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,10 +498,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -406,9 +519,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -707,7 +817,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
@@ -716,7 +826,7 @@
     <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -780,7 +890,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
@@ -788,7 +898,7 @@
     <col min="5" max="5" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -822,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -839,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -871,7 +981,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
@@ -879,7 +989,7 @@
     <col min="9" max="9" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -930,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -965,21 +1075,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="15" width="17.125" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="9.125" customWidth="1"/>
+    <col min="2" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,49 +1103,52 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1048,38 +1161,41 @@
       <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>72</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>73</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1092,9 +1208,6 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1122,17 +1235,20 @@
       <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="2">
-        <v>42582</v>
+      <c r="O3" t="s">
+        <v>28</v>
       </c>
       <c r="Q3" s="2">
         <v>42582</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R3" s="2">
+        <v>42582</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1145,9 +1261,6 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
@@ -1175,17 +1288,20 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="2">
-        <v>42582</v>
+      <c r="O4" t="s">
+        <v>29</v>
       </c>
       <c r="Q4" s="2">
         <v>42582</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R4" s="2">
+        <v>42582</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1198,9 +1314,6 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
@@ -1226,6 +1339,9 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1238,13 +1354,268 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="4">
+        <v>42617.715729166666</v>
+      </c>
+      <c r="G2" s="4">
+        <v>42617.715729166666</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="4">
+        <v>42617.720011574071</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42617.720011574071</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="4">
+        <v>42617.725648148145</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42617.725648148145</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4">
+        <v>42617.725648148145</v>
+      </c>
+      <c r="G5" s="4">
+        <v>42617.725648148145</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="4">
+        <v>42617.725648148145</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42617.725648148145</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="4">
+        <v>42617.736064814817</v>
+      </c>
+      <c r="G7" s="4">
+        <v>42617.736064814817</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="4">
+        <v>42617.736064814817</v>
+      </c>
+      <c r="G8" s="4">
+        <v>42617.736064814817</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42617.736076388886</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42617.736076388886</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
@@ -1255,7 +1626,7 @@
     <col min="11" max="11" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>74</v>
       </c>
@@ -1310,7 +1681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1342,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1374,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1406,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1445,15 +1816,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -1461,7 +1832,7 @@
     <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1510,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1533,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1556,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1586,15 +1957,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
@@ -1602,7 +1973,7 @@
     <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1648,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1671,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1694,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
